--- a/archivos/Inventario_Productos.xlsx
+++ b/archivos/Inventario_Productos.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SystemGenesis\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC574073-AACA-419C-8EAA-2F521AD40ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFA72B-A9E6-4E87-A834-A773719D77CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C8D0EC74-BCDF-4908-909D-75F5D97CA04B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Productos" sheetId="1" r:id="rId1"/>
+    <sheet name="Categorias" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Productos!$A$1:$K$97</definedName>
     <definedName name="categorias">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D1EE0C-C425-4244-8D49-73DCB1BC7486}">
   <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,11 +4316,11 @@
       </c>
       <c r="J2" s="10">
         <f t="shared" ref="J2:K21" ca="1" si="1">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K2" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,11 +4354,11 @@
       </c>
       <c r="J3" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4392,11 +4392,11 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4430,11 +4430,11 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="J6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,11 +4506,11 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4544,11 +4544,11 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4582,11 +4582,11 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4620,11 +4620,11 @@
       </c>
       <c r="J10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4696,11 +4696,11 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4734,11 +4734,11 @@
       </c>
       <c r="J13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4772,11 +4772,11 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4810,11 +4810,11 @@
       </c>
       <c r="J15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4848,11 +4848,11 @@
       </c>
       <c r="J16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4886,11 +4886,11 @@
       </c>
       <c r="J17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4924,11 +4924,11 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="J19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5000,11 +5000,11 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5038,11 +5038,11 @@
       </c>
       <c r="J21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5076,11 +5076,11 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" ref="J22:K41" ca="1" si="2">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5114,11 +5114,11 @@
       </c>
       <c r="J23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5152,11 +5152,11 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,11 +5190,11 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5228,11 +5228,11 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5266,11 +5266,11 @@
       </c>
       <c r="J27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -5304,11 +5304,11 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K28" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5342,11 +5342,11 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -5380,11 +5380,11 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -5418,11 +5418,11 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -5456,11 +5456,11 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -5494,11 +5494,11 @@
       </c>
       <c r="J33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5532,11 +5532,11 @@
       </c>
       <c r="J34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K34" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5570,11 +5570,11 @@
       </c>
       <c r="J35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K35" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5608,11 +5608,11 @@
       </c>
       <c r="J36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K36" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5646,11 +5646,11 @@
       </c>
       <c r="J37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K37" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5684,11 +5684,11 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K38" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5722,11 +5722,11 @@
       </c>
       <c r="J39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K39" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5760,11 +5760,11 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K40" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5798,11 +5798,11 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -5836,11 +5836,11 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" ref="J42:K61" ca="1" si="4">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -5874,11 +5874,11 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -5912,11 +5912,11 @@
       </c>
       <c r="J44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="J45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K45" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5988,11 +5988,11 @@
       </c>
       <c r="J46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K46" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6026,11 +6026,11 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6064,11 +6064,11 @@
       </c>
       <c r="J48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K48" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -6102,11 +6102,11 @@
       </c>
       <c r="J49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K49" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -6140,11 +6140,11 @@
       </c>
       <c r="J50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K50" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -6178,11 +6178,11 @@
       </c>
       <c r="J51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K51" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -6216,11 +6216,11 @@
       </c>
       <c r="J52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K52" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -6254,11 +6254,11 @@
       </c>
       <c r="J53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K53" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -6292,11 +6292,11 @@
       </c>
       <c r="J54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K54" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -6330,11 +6330,11 @@
       </c>
       <c r="J55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K55" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,11 +6368,11 @@
       </c>
       <c r="J56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,11 +6406,11 @@
       </c>
       <c r="J57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -6444,11 +6444,11 @@
       </c>
       <c r="J58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K58" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -6482,11 +6482,11 @@
       </c>
       <c r="J59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -6520,11 +6520,11 @@
       </c>
       <c r="J60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K60" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -6558,11 +6558,11 @@
       </c>
       <c r="J61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K61" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -6596,11 +6596,11 @@
       </c>
       <c r="J62" s="10">
         <f t="shared" ref="J62:K81" ca="1" si="5">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K62" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -6634,11 +6634,11 @@
       </c>
       <c r="J63" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K63" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -6672,11 +6672,11 @@
       </c>
       <c r="J64" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -6710,11 +6710,11 @@
       </c>
       <c r="J65" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K65" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -6748,11 +6748,11 @@
       </c>
       <c r="J66" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K66" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -6786,11 +6786,11 @@
       </c>
       <c r="J67" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K67" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="J68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K68" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -6862,11 +6862,11 @@
       </c>
       <c r="J69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K69" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="J70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K70" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -6938,11 +6938,11 @@
       </c>
       <c r="J71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K71" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -6976,11 +6976,11 @@
       </c>
       <c r="J72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K72" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -7014,11 +7014,11 @@
       </c>
       <c r="J73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K73" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -7052,11 +7052,11 @@
       </c>
       <c r="J74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K74" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -7090,11 +7090,11 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K75" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -7128,11 +7128,11 @@
       </c>
       <c r="J76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -7166,11 +7166,11 @@
       </c>
       <c r="J77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K77" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -7204,11 +7204,11 @@
       </c>
       <c r="J78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K78" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -7242,11 +7242,11 @@
       </c>
       <c r="J79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K79" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -7280,11 +7280,11 @@
       </c>
       <c r="J80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K80" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -7318,11 +7318,11 @@
       </c>
       <c r="J81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K81" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -7356,11 +7356,11 @@
       </c>
       <c r="J82" s="10">
         <f t="shared" ref="J82:K97" ca="1" si="7">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K82" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -7394,11 +7394,11 @@
       </c>
       <c r="J83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K83" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -7432,11 +7432,11 @@
       </c>
       <c r="J84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K84" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -7470,11 +7470,11 @@
       </c>
       <c r="J85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K85" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -7508,11 +7508,11 @@
       </c>
       <c r="J86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K86" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -7546,11 +7546,11 @@
       </c>
       <c r="J87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K87" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -7584,11 +7584,11 @@
       </c>
       <c r="J88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K88" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -7622,11 +7622,11 @@
       </c>
       <c r="J89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K89" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -7660,11 +7660,11 @@
       </c>
       <c r="J90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K90" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -7698,11 +7698,11 @@
       </c>
       <c r="J91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K91" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -7736,11 +7736,11 @@
       </c>
       <c r="J92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K92" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -7774,11 +7774,11 @@
       </c>
       <c r="J93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K93" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -7812,11 +7812,11 @@
       </c>
       <c r="J94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K94" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -7850,11 +7850,11 @@
       </c>
       <c r="J95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K95" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -7888,11 +7888,11 @@
       </c>
       <c r="J96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K96" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -7926,11 +7926,11 @@
       </c>
       <c r="J97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K97" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -7964,11 +7964,11 @@
       </c>
       <c r="J98" s="10">
         <f t="shared" ref="J98:K117" ca="1" si="8">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K98" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -8002,11 +8002,11 @@
       </c>
       <c r="J99" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K99" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -8040,11 +8040,11 @@
       </c>
       <c r="J100" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K100" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -8078,11 +8078,11 @@
       </c>
       <c r="J101" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K101" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -8116,11 +8116,11 @@
       </c>
       <c r="J102" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K102" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -8154,11 +8154,11 @@
       </c>
       <c r="J103" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K103" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -8192,11 +8192,11 @@
       </c>
       <c r="J104" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K104" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -8230,11 +8230,11 @@
       </c>
       <c r="J105" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K105" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -8268,11 +8268,11 @@
       </c>
       <c r="J106" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K106" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -8306,11 +8306,11 @@
       </c>
       <c r="J107" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K107" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -8344,11 +8344,11 @@
       </c>
       <c r="J108" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K108" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K109" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -8420,11 +8420,11 @@
       </c>
       <c r="J110" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K110" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -8458,11 +8458,11 @@
       </c>
       <c r="J111" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K111" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -8496,11 +8496,11 @@
       </c>
       <c r="J112" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K112" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -8534,11 +8534,11 @@
       </c>
       <c r="J113" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K113" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -8572,11 +8572,11 @@
       </c>
       <c r="J114" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K114" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -8610,11 +8610,11 @@
       </c>
       <c r="J115" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K115" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -8648,11 +8648,11 @@
       </c>
       <c r="J116" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K116" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -8686,11 +8686,11 @@
       </c>
       <c r="J117" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K117" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -8724,11 +8724,11 @@
       </c>
       <c r="J118" s="10">
         <f t="shared" ref="J118:K137" ca="1" si="9">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K118" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -8762,11 +8762,11 @@
       </c>
       <c r="J119" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K119" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -8800,11 +8800,11 @@
       </c>
       <c r="J120" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K120" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -8838,11 +8838,11 @@
       </c>
       <c r="J121" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K121" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -8876,11 +8876,11 @@
       </c>
       <c r="J122" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K122" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -8914,11 +8914,11 @@
       </c>
       <c r="J123" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K123" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -8952,11 +8952,11 @@
       </c>
       <c r="J124" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K124" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -8990,11 +8990,11 @@
       </c>
       <c r="J125" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K125" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -9028,11 +9028,11 @@
       </c>
       <c r="J126" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K126" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -9066,11 +9066,11 @@
       </c>
       <c r="J127" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K127" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -9104,11 +9104,11 @@
       </c>
       <c r="J128" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K128" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -9142,11 +9142,11 @@
       </c>
       <c r="J129" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K129" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -9180,11 +9180,11 @@
       </c>
       <c r="J130" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K130" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -9218,11 +9218,11 @@
       </c>
       <c r="J131" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K131" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -9256,11 +9256,11 @@
       </c>
       <c r="J132" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K132" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -9294,11 +9294,11 @@
       </c>
       <c r="J133" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K133" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -9332,11 +9332,11 @@
       </c>
       <c r="J134" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K134" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -9370,11 +9370,11 @@
       </c>
       <c r="J135" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K135" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -9408,11 +9408,11 @@
       </c>
       <c r="J136" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K136" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -9446,11 +9446,11 @@
       </c>
       <c r="J137" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K137" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -9484,11 +9484,11 @@
       </c>
       <c r="J138" s="10">
         <f t="shared" ref="J138:K157" ca="1" si="11">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K138" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -9522,11 +9522,11 @@
       </c>
       <c r="J139" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K139" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -9560,11 +9560,11 @@
       </c>
       <c r="J140" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K140" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -9598,11 +9598,11 @@
       </c>
       <c r="J141" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K141" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -9636,11 +9636,11 @@
       </c>
       <c r="J142" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K142" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -9674,11 +9674,11 @@
       </c>
       <c r="J143" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K143" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -9712,11 +9712,11 @@
       </c>
       <c r="J144" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K144" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -9750,11 +9750,11 @@
       </c>
       <c r="J145" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K145" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -9788,11 +9788,11 @@
       </c>
       <c r="J146" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K146" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -9826,11 +9826,11 @@
       </c>
       <c r="J147" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K147" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -9864,11 +9864,11 @@
       </c>
       <c r="J148" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K148" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -9902,11 +9902,11 @@
       </c>
       <c r="J149" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K149" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -9940,11 +9940,11 @@
       </c>
       <c r="J150" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K150" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -9978,11 +9978,11 @@
       </c>
       <c r="J151" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K151" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -10016,11 +10016,11 @@
       </c>
       <c r="J152" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K152" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -10054,11 +10054,11 @@
       </c>
       <c r="J153" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K153" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -10092,11 +10092,11 @@
       </c>
       <c r="J154" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K154" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -10130,11 +10130,11 @@
       </c>
       <c r="J155" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K155" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -10168,11 +10168,11 @@
       </c>
       <c r="J156" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K156" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -10206,11 +10206,11 @@
       </c>
       <c r="J157" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K157" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -10244,11 +10244,11 @@
       </c>
       <c r="J158" s="10">
         <f t="shared" ref="J158:K177" ca="1" si="12">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K158" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -10282,11 +10282,11 @@
       </c>
       <c r="J159" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K159" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -10320,11 +10320,11 @@
       </c>
       <c r="J160" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K160" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -10358,11 +10358,11 @@
       </c>
       <c r="J161" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K161" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -10396,11 +10396,11 @@
       </c>
       <c r="J162" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K162" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -10434,11 +10434,11 @@
       </c>
       <c r="J163" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K163" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -10472,11 +10472,11 @@
       </c>
       <c r="J164" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K164" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -10510,11 +10510,11 @@
       </c>
       <c r="J165" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K165" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -10548,11 +10548,11 @@
       </c>
       <c r="J166" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K166" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -10586,11 +10586,11 @@
       </c>
       <c r="J167" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K167" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -10624,11 +10624,11 @@
       </c>
       <c r="J168" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K168" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -10662,11 +10662,11 @@
       </c>
       <c r="J169" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K169" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -10700,11 +10700,11 @@
       </c>
       <c r="J170" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K170" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -10738,11 +10738,11 @@
       </c>
       <c r="J171" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K171" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -10776,11 +10776,11 @@
       </c>
       <c r="J172" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K172" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="J173" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K173" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -10852,11 +10852,11 @@
       </c>
       <c r="J174" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K174" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -10890,11 +10890,11 @@
       </c>
       <c r="J175" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K175" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -10928,11 +10928,11 @@
       </c>
       <c r="J176" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K176" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -10966,11 +10966,11 @@
       </c>
       <c r="J177" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K177" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -11004,11 +11004,11 @@
       </c>
       <c r="J178" s="10">
         <f t="shared" ref="J178:K193" ca="1" si="13">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K178" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -11042,11 +11042,11 @@
       </c>
       <c r="J179" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K179" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -11080,11 +11080,11 @@
       </c>
       <c r="J180" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K180" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -11118,11 +11118,11 @@
       </c>
       <c r="J181" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K181" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -11156,11 +11156,11 @@
       </c>
       <c r="J182" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K182" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -11194,11 +11194,11 @@
       </c>
       <c r="J183" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K183" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -11232,11 +11232,11 @@
       </c>
       <c r="J184" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K184" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -11270,11 +11270,11 @@
       </c>
       <c r="J185" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K185" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -11308,11 +11308,11 @@
       </c>
       <c r="J186" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K186" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -11346,11 +11346,11 @@
       </c>
       <c r="J187" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K187" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -11384,11 +11384,11 @@
       </c>
       <c r="J188" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K188" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -11422,11 +11422,11 @@
       </c>
       <c r="J189" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K189" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -11460,11 +11460,11 @@
       </c>
       <c r="J190" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K190" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -11498,11 +11498,11 @@
       </c>
       <c r="J191" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K191" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -11536,11 +11536,11 @@
       </c>
       <c r="J192" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K192" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -11574,11 +11574,11 @@
       </c>
       <c r="J193" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K193" s="10">
         <f t="shared" ca="1" si="13"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -11612,11 +11612,11 @@
       </c>
       <c r="J194" s="10">
         <f t="shared" ref="J194:K213" ca="1" si="15">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K194" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -11650,11 +11650,11 @@
       </c>
       <c r="J195" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K195" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -11688,11 +11688,11 @@
       </c>
       <c r="J196" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K196" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -11726,11 +11726,11 @@
       </c>
       <c r="J197" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K197" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -11764,11 +11764,11 @@
       </c>
       <c r="J198" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K198" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -11802,11 +11802,11 @@
       </c>
       <c r="J199" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K199" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -11840,11 +11840,11 @@
       </c>
       <c r="J200" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K200" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -11878,11 +11878,11 @@
       </c>
       <c r="J201" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K201" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -11916,11 +11916,11 @@
       </c>
       <c r="J202" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K202" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -11954,11 +11954,11 @@
       </c>
       <c r="J203" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K203" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -11992,11 +11992,11 @@
       </c>
       <c r="J204" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K204" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -12030,11 +12030,11 @@
       </c>
       <c r="J205" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K205" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -12068,11 +12068,11 @@
       </c>
       <c r="J206" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K206" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -12106,11 +12106,11 @@
       </c>
       <c r="J207" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K207" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -12144,11 +12144,11 @@
       </c>
       <c r="J208" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K208" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -12182,11 +12182,11 @@
       </c>
       <c r="J209" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K209" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -12220,11 +12220,11 @@
       </c>
       <c r="J210" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K210" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -12258,11 +12258,11 @@
       </c>
       <c r="J211" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K211" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -12296,11 +12296,11 @@
       </c>
       <c r="J212" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K212" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -12334,11 +12334,11 @@
       </c>
       <c r="J213" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K213" s="10">
         <f t="shared" ca="1" si="15"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -12372,11 +12372,11 @@
       </c>
       <c r="J214" s="10">
         <f t="shared" ref="J214:K233" ca="1" si="16">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K214" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -12410,11 +12410,11 @@
       </c>
       <c r="J215" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K215" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -12448,11 +12448,11 @@
       </c>
       <c r="J216" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K216" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -12486,11 +12486,11 @@
       </c>
       <c r="J217" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K217" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -12524,11 +12524,11 @@
       </c>
       <c r="J218" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K218" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -12562,11 +12562,11 @@
       </c>
       <c r="J219" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K219" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -12600,11 +12600,11 @@
       </c>
       <c r="J220" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K220" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -12638,11 +12638,11 @@
       </c>
       <c r="J221" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K221" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -12676,11 +12676,11 @@
       </c>
       <c r="J222" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K222" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -12714,11 +12714,11 @@
       </c>
       <c r="J223" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K223" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -12752,11 +12752,11 @@
       </c>
       <c r="J224" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K224" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -12790,11 +12790,11 @@
       </c>
       <c r="J225" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K225" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -12828,11 +12828,11 @@
       </c>
       <c r="J226" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K226" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -12866,11 +12866,11 @@
       </c>
       <c r="J227" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K227" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -12904,11 +12904,11 @@
       </c>
       <c r="J228" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K228" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -12942,11 +12942,11 @@
       </c>
       <c r="J229" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K229" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -12980,11 +12980,11 @@
       </c>
       <c r="J230" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K230" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -13018,11 +13018,11 @@
       </c>
       <c r="J231" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K231" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -13056,11 +13056,11 @@
       </c>
       <c r="J232" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K232" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -13094,11 +13094,11 @@
       </c>
       <c r="J233" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K233" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -13132,11 +13132,11 @@
       </c>
       <c r="J234" s="10">
         <f t="shared" ref="J234:K253" ca="1" si="17">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K234" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -13170,11 +13170,11 @@
       </c>
       <c r="J235" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K235" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -13208,11 +13208,11 @@
       </c>
       <c r="J236" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K236" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -13246,11 +13246,11 @@
       </c>
       <c r="J237" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K237" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -13284,11 +13284,11 @@
       </c>
       <c r="J238" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K238" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -13322,11 +13322,11 @@
       </c>
       <c r="J239" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K239" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -13360,11 +13360,11 @@
       </c>
       <c r="J240" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K240" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -13398,11 +13398,11 @@
       </c>
       <c r="J241" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K241" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -13436,11 +13436,11 @@
       </c>
       <c r="J242" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K242" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -13474,11 +13474,11 @@
       </c>
       <c r="J243" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K243" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -13512,11 +13512,11 @@
       </c>
       <c r="J244" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K244" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -13550,11 +13550,11 @@
       </c>
       <c r="J245" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K245" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -13588,11 +13588,11 @@
       </c>
       <c r="J246" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K246" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -13626,11 +13626,11 @@
       </c>
       <c r="J247" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K247" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -13664,11 +13664,11 @@
       </c>
       <c r="J248" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K248" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -13702,11 +13702,11 @@
       </c>
       <c r="J249" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K249" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -13740,11 +13740,11 @@
       </c>
       <c r="J250" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K250" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -13778,11 +13778,11 @@
       </c>
       <c r="J251" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K251" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -13816,11 +13816,11 @@
       </c>
       <c r="J252" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K252" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -13854,11 +13854,11 @@
       </c>
       <c r="J253" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K253" s="10">
         <f t="shared" ca="1" si="17"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -13892,11 +13892,11 @@
       </c>
       <c r="J254" s="10">
         <f t="shared" ref="J254:K273" ca="1" si="18">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K254" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -13930,11 +13930,11 @@
       </c>
       <c r="J255" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K255" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -13968,11 +13968,11 @@
       </c>
       <c r="J256" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K256" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -14006,11 +14006,11 @@
       </c>
       <c r="J257" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K257" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -14044,11 +14044,11 @@
       </c>
       <c r="J258" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K258" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -14082,11 +14082,11 @@
       </c>
       <c r="J259" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K259" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -14120,11 +14120,11 @@
       </c>
       <c r="J260" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K260" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -14158,11 +14158,11 @@
       </c>
       <c r="J261" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K261" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -14196,11 +14196,11 @@
       </c>
       <c r="J262" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K262" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -14234,11 +14234,11 @@
       </c>
       <c r="J263" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K263" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -14272,11 +14272,11 @@
       </c>
       <c r="J264" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K264" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -14310,11 +14310,11 @@
       </c>
       <c r="J265" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K265" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -14348,11 +14348,11 @@
       </c>
       <c r="J266" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K266" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -14386,11 +14386,11 @@
       </c>
       <c r="J267" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K267" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -14424,11 +14424,11 @@
       </c>
       <c r="J268" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K268" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -14462,11 +14462,11 @@
       </c>
       <c r="J269" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K269" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -14500,11 +14500,11 @@
       </c>
       <c r="J270" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K270" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -14538,11 +14538,11 @@
       </c>
       <c r="J271" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K271" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -14576,11 +14576,11 @@
       </c>
       <c r="J272" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K272" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -14614,11 +14614,11 @@
       </c>
       <c r="J273" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K273" s="10">
         <f t="shared" ca="1" si="18"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -14652,11 +14652,11 @@
       </c>
       <c r="J274" s="10">
         <f t="shared" ref="J274:K289" ca="1" si="20">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K274" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -14690,11 +14690,11 @@
       </c>
       <c r="J275" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K275" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -14728,11 +14728,11 @@
       </c>
       <c r="J276" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K276" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -14766,11 +14766,11 @@
       </c>
       <c r="J277" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K277" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -14804,11 +14804,11 @@
       </c>
       <c r="J278" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K278" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -14842,11 +14842,11 @@
       </c>
       <c r="J279" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K279" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -14880,11 +14880,11 @@
       </c>
       <c r="J280" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K280" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -14918,11 +14918,11 @@
       </c>
       <c r="J281" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K281" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -14956,11 +14956,11 @@
       </c>
       <c r="J282" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K282" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -14994,11 +14994,11 @@
       </c>
       <c r="J283" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K283" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -15032,11 +15032,11 @@
       </c>
       <c r="J284" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K284" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -15070,11 +15070,11 @@
       </c>
       <c r="J285" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K285" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -15108,11 +15108,11 @@
       </c>
       <c r="J286" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K286" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -15146,11 +15146,11 @@
       </c>
       <c r="J287" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K287" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -15184,11 +15184,11 @@
       </c>
       <c r="J288" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K288" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -15222,11 +15222,11 @@
       </c>
       <c r="J289" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K289" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -15260,11 +15260,11 @@
       </c>
       <c r="J290" s="10">
         <f t="shared" ref="J290:K301" ca="1" si="21">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K290" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -15298,11 +15298,11 @@
       </c>
       <c r="J291" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K291" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -15336,11 +15336,11 @@
       </c>
       <c r="J292" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K292" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -15374,11 +15374,11 @@
       </c>
       <c r="J293" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K293" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -15412,11 +15412,11 @@
       </c>
       <c r="J294" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K294" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -15450,11 +15450,11 @@
       </c>
       <c r="J295" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K295" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -15488,11 +15488,11 @@
       </c>
       <c r="J296" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K296" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -15526,11 +15526,11 @@
       </c>
       <c r="J297" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K297" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -15564,11 +15564,11 @@
       </c>
       <c r="J298" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K298" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -15602,11 +15602,11 @@
       </c>
       <c r="J299" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K299" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -15640,11 +15640,11 @@
       </c>
       <c r="J300" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K300" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -15678,11 +15678,11 @@
       </c>
       <c r="J301" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="K301" s="10">
         <f t="shared" ca="1" si="21"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
   </sheetData>
@@ -15701,7 +15701,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="B2" s="11">
         <f ca="1">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B20" ca="1" si="0">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -15742,7 +15742,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -15778,7 +15778,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -15814,7 +15814,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -15823,7 +15823,7 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
   </sheetData>
